--- a/backend/tests/testing_files/keywords.xlsx
+++ b/backend/tests/testing_files/keywords.xlsx
@@ -474,52 +474,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>police</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>covid</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>gun</t>
+          <t>coronavirus</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>county</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>call</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>trump</t>
+          <t>racism</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>senate</t>
+          <t>drug</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>met</t>
+          <t>deepstate</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>week</t>
+          <t>speaks</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>poet</t>
         </is>
       </c>
     </row>
@@ -531,52 +531,52 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>police</t>
+          <t>place</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>teen</t>
+          <t>care</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>obama</t>
+          <t>smith</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>david</t>
+          <t>recovery</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>body</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>donald</t>
+          <t>provide</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>texas</t>
+          <t>press</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>embassy</t>
+          <t>creepy</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>netflix</t>
+          <t>oscar</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>arrest</t>
         </is>
       </c>
     </row>
@@ -588,52 +588,52 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gun</t>
+          <t>theory</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>snl</t>
+          <t>trump</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>dead</t>
+          <t>patient</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>protest</t>
+          <t>protection</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>hide</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>bill</t>
+          <t>state</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>wild</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>brain</t>
         </is>
       </c>
     </row>
@@ -645,52 +645,52 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>coming</t>
+          <t>democrat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>deal</t>
+          <t>proof</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>big</t>
+          <t>color</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>life</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>gay</t>
+          <t>restriction</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>north</t>
+          <t>allegedly</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>doesnt</t>
+          <t>creation</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>giuliani</t>
+          <t>make</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>deadpool</t>
+          <t>fierce</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>cop</t>
+          <t>turbocharge</t>
         </is>
       </c>
     </row>
@@ -702,52 +702,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>shooting</t>
+          <t>expire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>bill</t>
+          <t>declaration</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>european</t>
+          <t>rico</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>john</t>
+          <t>claim</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>photo</t>
+          <t>test</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>michael</t>
+          <t>idiocracy</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>didnt</t>
+          <t>utility</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>wedding</t>
+          <t>day</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>claim</t>
+          <t>wont</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>john</t>
+          <t>student</t>
         </is>
       </c>
     </row>
@@ -759,52 +759,52 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>eric</t>
+          <t>house</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>world</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>blessing</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ban</t>
+          <t>ambitious</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>gave</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>twitter</t>
+          <t>continue</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>eric</t>
+          <t>body</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>war</t>
+          <t>puerto</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>scene</t>
+          <t>boebert</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>baby</t>
+          <t>china</t>
         </is>
       </c>
     </row>
@@ -816,52 +816,52 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pruitt</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>hong</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>gay</t>
+          <t>unveil</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>photo</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>hilariously</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>star</t>
+          <t>party</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>spell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>arrested</t>
+          <t>max</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>kong</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>columnist</t>
         </is>
       </c>
     </row>
@@ -873,52 +873,52 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>bias</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>assault</t>
+          <t>davis</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>reform</t>
+          <t>health</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>people</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>russia</t>
+          <t>living</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>iran</t>
+          <t>winner</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>officer</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>america</t>
+          <t>host</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>fox</t>
+          <t>institutional</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>misophonia</t>
         </is>
       </c>
     </row>
@@ -930,52 +930,52 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>property</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>immigrant</t>
+          <t>conspiracy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>stimulus</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>noah</t>
+          <t>desantis</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>harvey</t>
+          <t>reduce</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>win</t>
+          <t>nail</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>jackson</t>
+          <t>hope</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>jim</t>
+          <t>wont</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>scott</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>mock</t>
+          <t>washington</t>
         </is>
       </c>
     </row>
@@ -987,52 +987,52 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>found</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>lawmaker</t>
+          <t>trial</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>governor</t>
+          <t>pinkett</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>lori</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>harassment</t>
+          <t>history</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>cohen</t>
+          <t>upended</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>publix</t>
+          <t>end</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>reduce</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>virtually</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>love</t>
+          <t>prince</t>
         </is>
       </c>
     </row>
@@ -1044,52 +1044,52 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>injured</t>
+          <t>destroy</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>congressional</t>
+          <t>presidency</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>haspel</t>
+          <t>post</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>anderson</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>law</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>black</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>jong</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>report</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>korea</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>award</t>
+          <t>remdesivir</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>wont</t>
+          <t>world</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>late</t>
+          <t>lauren</t>
         </is>
       </c>
     </row>
@@ -1101,52 +1101,52 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schneiderman</t>
+          <t>chalkboard</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>russian</t>
+          <t>alleged</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ohio</t>
+          <t>investigation</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sander</t>
+          <t>break</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>make</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>kneeling</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>war</t>
+          <t>sexual</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>reynolds</t>
+          <t>patient</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>race</t>
+          <t>husband</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>oliver</t>
+          <t>climate</t>
         </is>
       </c>
     </row>
@@ -1158,52 +1158,52 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sarah</t>
+          <t>chewing</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>conservative</t>
+          <t>flag</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>honor</t>
+          <t>shot</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>lgbtq</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>office</t>
+          <t>racial</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>racial</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>american</t>
+          <t>equity</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>recovery</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>leader</t>
+          <t>release</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>gop</t>
+          <t>harry</t>
         </is>
       </c>
     </row>
@@ -1215,52 +1215,52 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>film</t>
+          <t>college</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>boot</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>mug</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>mccain</t>
+          <t>green</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>cia</t>
+          <t>unsee</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>primary</t>
+          <t>surge</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>mueller</t>
+          <t>time</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>harassment</t>
+          <t>blame</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>denies</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>ariana</t>
+          <t>avoid</t>
         </is>
       </c>
     </row>
@@ -1272,52 +1272,52 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cambridge</t>
+          <t>dying</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>lawmaker</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>smith</t>
+          <t>francisco</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>remdesivir</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>mark</t>
+          <t>photographer</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>deal</t>
+          <t>imposed</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>worth</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ice</t>
+          <t>found</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>opening</t>
+          <t>deadliest</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>teigen</t>
+          <t>conspired</t>
         </is>
       </c>
     </row>
@@ -1329,52 +1329,52 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>gov</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>biggest</t>
+          <t>rural</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>bill</t>
+          <t>obama</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>joe</t>
+          <t>goldmine</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>fcc</t>
+          <t>thing</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>korea</t>
+          <t>bad</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>jada</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>democrat</t>
+          <t>antiviral</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>mccain</t>
+          <t>school</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>accuser</t>
+          <t>san</t>
         </is>
       </c>
     </row>
@@ -1386,52 +1386,52 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>johnson</t>
+          <t>conservative</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>victim</t>
+          <t>citing</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>kill</t>
+          <t>antiviral</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>found</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>stormy</t>
+          <t>idaho</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>give</t>
+          <t>recovery</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>star</t>
+          <t>sound</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>deal</t>
+          <t>world</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>gay</t>
+          <t>refugee</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>daybell</t>
         </is>
       </c>
     </row>
@@ -1443,52 +1443,52 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>user</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>put</t>
+          <t>viola</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>vallow</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>jim</t>
+          <t>four</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>immigration</t>
+          <t>society</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>american</t>
+          <t>reduce</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>weinstein</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>abortion</t>
+          <t>trial</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>cameo</t>
+          <t>noticed</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>watch</t>
+          <t>talent</t>
         </is>
       </c>
     </row>
@@ -1500,52 +1500,52 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>gop</t>
+          <t>blame</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>amy</t>
+          <t>security</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>girl</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>claim</t>
+          <t>day</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>insult</t>
+          <t>fox</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>jimmy</t>
+          <t>patient</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>michael</t>
+          <t>shoving</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>voter</t>
+          <t>four</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>accused</t>
+          <t>news</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>affair</t>
         </is>
       </c>
     </row>
@@ -1557,52 +1557,52 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>protester</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>reveals</t>
+          <t>contractor</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>mueller</t>
+          <t>social</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>reduce</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>trump</t>
+          <t>ron</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>summit</t>
+          <t>found</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>mike</t>
+          <t>recovery</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>rudy</t>
+          <t>say</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>fan</t>
+          <t>trial</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>accused</t>
+          <t>filmed</t>
         </is>
       </c>
     </row>
@@ -1613,34 +1613,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0864685341429144</v>
+        <v>0.10457282956839</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08248888652651229</v>
+        <v>0.103492513682271</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07952367977703813</v>
+        <v>0.1013802661465637</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08378136301156899</v>
+        <v>0.09766927525967821</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08742598245481961</v>
+        <v>0.09941974184723379</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2287028287349798</v>
+        <v>0.09821720878265072</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07413149614438155</v>
+        <v>0.09915399470233867</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08389317292574405</v>
+        <v>0.09495396825596771</v>
       </c>
       <c r="J22" t="n">
-        <v>0.08624017411358768</v>
+        <v>0.09903185601573448</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1073438821684535</v>
+        <v>0.1021083457391718</v>
       </c>
     </row>
   </sheetData>
